--- a/data/trans_camb/P38_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P38_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M2</t>
-        </is>
-      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M2</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,2</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,98</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,76</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,64</t>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13,38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,58; 24,9</t>
+          <t>-5,67; 4,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 11,34</t>
+          <t>2,98; 14,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 30,88</t>
+          <t>-5,03; 6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 22,09</t>
+          <t>-2,03; 6,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,42; 26,63</t>
+          <t>11,63; 22,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 16,0</t>
+          <t>-8,24; 2,3</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 4,17</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 17,93</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 2,99</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>117,45%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73,87%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>102,89%</t>
+          <t>78,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,59%</t>
+          <t>-6,77%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>60,78%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-3,6%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,71; 128,02</t>
+          <t>-22,89; 20,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 57,44</t>
+          <t>12,48; 73,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,61; 155,83</t>
+          <t>-14,95; 24,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,71; 112,46</t>
+          <t>-8,36; 32,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,6; 130,86</t>
+          <t>49,15; 120,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,53; 79,45</t>
+          <t>-19,57; 6,49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; 21,01</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39,86; 86,46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-13,85; 8,69</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,16</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>18,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,26</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,07</t>
+          <t>13,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16,11</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 26,39</t>
+          <t>-1,89; 7,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 15,21</t>
+          <t>12,24; 23,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 28,02</t>
+          <t>-10,85; 5,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,26</t>
+          <t>-1,48; 9,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 24,98</t>
+          <t>6,99; 19,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 16,0</t>
+          <t>-7,81; 9,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 7,13</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11,97; 20,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,05; 4,39</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>146,01%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,73%</t>
+          <t>135,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>124,82%</t>
+          <t>-10,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,89%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>133,96%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>101,29%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-4,14%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,07; 235,63</t>
+          <t>-13,18; 65,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,95; 127,41</t>
+          <t>77,05; 205,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,96; 187,59</t>
+          <t>-31,22; 19,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,9; 133,04</t>
+          <t>-7,63; 60,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,01; 177,44</t>
+          <t>34,01; 126,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,29; 114,4</t>
+          <t>-22,96; 34,54</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 50,13</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68,85; 143,62</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-20,76; 14,93</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,32</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>10,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,88</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,49</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 24,83</t>
+          <t>-7,1; 13,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 16,65</t>
+          <t>-4,48; 19,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,07; 29,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 24,39</t>
+          <t>-7,24; 13,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 23,63</t>
+          <t>-2,34; 22,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 17,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 10,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 16,81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>55,26%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>73,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37,18%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 162,52</t>
+          <t>-29,92; 96,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 103,96</t>
+          <t>-17,8; 141,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,89; 156,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,63; 122,11</t>
+          <t>-23,34; 64,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,66; 128,86</t>
+          <t>-8,42; 107,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 94,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-17,14; 55,48</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 88,95</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,71</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,7</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,26</t>
+          <t>15,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13,86</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,74; 22,36</t>
+          <t>-2,37; 4,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 11,23</t>
+          <t>8,69; 16,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,93; 27,19</t>
+          <t>-4,49; 4,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,79; 19,19</t>
+          <t>-0,1; 6,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,47; 23,87</t>
+          <t>10,97; 19,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,29</t>
+          <t>-4,63; 3,82</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 4,38</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11,2; 16,69</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 2,89</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>113,8%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>107,21%</t>
+          <t>71,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,36%</t>
+          <t>-0,85%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>70,27%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,35; 134,17</t>
+          <t>-12,09; 25,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,03; 66,92</t>
+          <t>43,2; 102,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,57; 145,65</t>
+          <t>-13,79; 17,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>50,23; 99,53</t>
+          <t>-0,31; 31,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>85,71; 128,49</t>
+          <t>48,51; 97,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,11; 77,61</t>
+          <t>-12,37; 11,27</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 23,41</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>53,21; 89,58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-10,6; 8,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
